--- a/ページ一覧_画面遷移図_コーディング規約.xlsx
+++ b/ページ一覧_画面遷移図_コーディング規約.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PHP最終課題_ジュエリーショッピングサイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFDF868-A939-4B2B-AA39-D0FD9550935B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B75A1E-7D77-41BB-91C9-B845BAD5BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9F9E054A-B79C-4FAB-9519-16249CFEB800}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
@@ -655,6 +655,53 @@
 ・XSS・SQLインジェクションに配慮した実装となっていること。
 ・バリデーションにおけるエラーメッセージには、入力値の何が問題かがユーザーに分かる内容が記述されていること。
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品管理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の管理画面。商品の在庫数変更や商品の削除、新規登録ができる。トップページよりユーザー名「ec_admin」、パスワード「ec_admin」でログインすることでアクセスできる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -768,13 +815,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -838,13 +885,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -906,15 +953,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>624840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -929,7 +976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4632960" y="213360"/>
+          <a:off x="4648200" y="182880"/>
           <a:ext cx="1516380" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -998,15 +1045,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1021,7 +1068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1539240" y="243840"/>
+          <a:off x="1554480" y="213360"/>
           <a:ext cx="1920240" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1079,13 +1126,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1171,13 +1218,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1263,13 +1310,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1355,13 +1402,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1447,13 +1494,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1539,13 +1586,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1631,13 +1678,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1723,13 +1770,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1815,13 +1862,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1907,13 +1954,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1999,13 +2046,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2063,13 +2110,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2127,13 +2174,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>79317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2180,13 +2227,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2233,13 +2280,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2286,13 +2333,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2339,13 +2386,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2392,13 +2439,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2445,13 +2492,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2498,13 +2545,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2551,13 +2598,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2604,13 +2651,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2657,13 +2704,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2711,13 +2758,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2765,13 +2812,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2819,13 +2866,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2873,13 +2920,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2927,13 +2974,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2981,13 +3028,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3035,13 +3082,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3089,13 +3136,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3143,13 +3190,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3197,13 +3244,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3251,13 +3298,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3305,13 +3352,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3359,13 +3406,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3412,15 +3459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3435,7 +3482,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6195060" y="693420"/>
+          <a:off x="6202680" y="815340"/>
           <a:ext cx="3154680" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3467,13 +3514,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>624253</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>91422</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3489,8 +3536,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9319260" y="693420"/>
-          <a:ext cx="22273" cy="6941802"/>
+          <a:off x="9319260" y="838200"/>
+          <a:ext cx="22860" cy="6797022"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3519,16 +3566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3543,7 +3590,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2026920" y="7139940"/>
+          <a:off x="1897380" y="7780020"/>
           <a:ext cx="2103120" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3592,13 +3639,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>126423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3646,13 +3693,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3700,13 +3747,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>316136</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>327676</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3754,13 +3801,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3806,16 +3853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3830,7 +3877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2042160" y="6225540"/>
+          <a:off x="1912620" y="6865620"/>
           <a:ext cx="3459480" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3887,13 +3934,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4060,13 +4107,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4125,13 +4172,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4190,13 +4237,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4255,13 +4302,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4320,13 +4367,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4385,13 +4432,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4450,13 +4497,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>525796</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>525796</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4504,13 +4551,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4558,13 +4605,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>610235</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624856</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4612,13 +4659,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4666,13 +4713,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4714,6 +4761,357 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F36F709-DCB7-4C90-ABD7-94DBEF0A825B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7627620" y="190500"/>
+          <a:ext cx="1920240" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(control_page.php)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF3D251-7B2D-40DB-BE22-3F151BADAEBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="487680"/>
+          <a:ext cx="967740" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119F95FD-029E-4622-BB94-70A9AE8B9383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6416040" y="632460"/>
+          <a:ext cx="914400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46B6242-44A3-4F98-8918-F5096315A5CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6614160" y="617220"/>
+          <a:ext cx="510540" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>＊３</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3ECCF49-FFAC-4BB7-A195-51C092F98CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1851660" y="8488680"/>
+          <a:ext cx="2964180" cy="861060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>＊３：ユーザー名「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>ec_admin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　　　パスワード「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            <a:t>ec_admin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>」にて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
+            <a:t>　　　商品管理のページに遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5016,10 +5414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13783C43-5DDB-4273-BDE6-9F7A877D73AD}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5217,6 +5615,20 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="54" x14ac:dyDescent="0.45">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5237,12 +5649,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>

--- a/ページ一覧_画面遷移図_コーディング規約.xlsx
+++ b/ページ一覧_画面遷移図_コーディング規約.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PHP最終課題_ジュエリーショッピングサイト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it-hachioji05\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B75A1E-7D77-41BB-91C9-B845BAD5BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DB5DA-4FFE-4792-A7AC-EFD8996D749F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9F9E054A-B79C-4FAB-9519-16249CFEB800}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F9E054A-B79C-4FAB-9519-16249CFEB800}"/>
   </bookViews>
   <sheets>
     <sheet name="ページ一覧" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/index.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力内容の確認</t>
     <rPh sb="0" eb="4">
       <t>ニュウリョクナイヨウ</t>
@@ -102,49 +98,6 @@
   <si>
     <t>お支払方法入力</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/complete_page.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/membership_terms.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/sign_up.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/confirm_sign_up.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/complete_sign_up.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/catalog_page.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/cart_page.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/address_page.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/payment_page.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/confirmation_page.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://portfolio.dc-itex.com/hachioji/0001/htdocs/ec_site/privacy.php</t>
   </si>
   <si>
     <t>プライバシーポリシー</t>
@@ -702,6 +655,54 @@
     <rPh sb="44" eb="45">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/index.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/privacy.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/membership_terms.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/sign_up.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/confirm_sign_up.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/complete_sign_up.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/catalog_page.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/cart_page.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/address_page.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/payment_page.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/complete_page.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://portfolio.dc-itex.com/hachioji/0001/ec_site/confirmation_page.php</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5416,8 +5417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13783C43-5DDB-4273-BDE6-9F7A877D73AD}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5430,7 +5431,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5458,10 +5459,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5469,13 +5470,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5483,13 +5484,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5497,13 +5498,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5511,13 +5512,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5525,13 +5526,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -5539,13 +5540,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="82.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -5553,13 +5554,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5567,13 +5568,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="72" x14ac:dyDescent="0.45">
@@ -5581,13 +5582,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="72" x14ac:dyDescent="0.45">
@@ -5595,13 +5596,13 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="72" x14ac:dyDescent="0.45">
@@ -5609,13 +5610,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="54" x14ac:dyDescent="0.45">
@@ -5623,22 +5624,34 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{10FD4885-FACE-4605-AC22-FF23DB0468D3}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{492A0503-1235-43DA-9133-0725470D4F2F}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{191F38CC-F380-48F3-819C-BED6B0A42F07}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{CCFDF98A-2F6F-492C-BD06-C4EBFB393DC9}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{169FEBC7-CA87-4AD7-A020-42D3CBB35403}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{C79A9168-9EE8-47BF-A38E-B73165C4D1D1}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{4F6196C3-4B65-443F-8CE0-D7E41250F741}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{A9EB80C1-5190-4A1C-AB2A-813E771D5E21}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{0B3D2847-0884-4E90-82D7-966A7BA936E1}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{364E3524-2BEC-444A-AD91-7F9CD0C19D2E}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{C38A02E0-2BF5-4610-A804-8EB76F3A0BDC}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{1DE4FA3F-E9C9-4BD6-B698-E92E3C0F4543}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{F6FCF00B-640C-459A-971B-B7298412A136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -5649,7 +5662,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -5679,13 +5692,13 @@
   <sheetData>
     <row r="2" spans="2:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="3.6" hidden="1" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:2" ht="165.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
